--- a/DataFrame_reconstruido/Polvo_industrial_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Polvo_industrial_reconstruido.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-33.15202331542969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>-29.35964965820312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>-25.56729125976562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>-21.77496337890625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>-17.98262023925781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>-14.15611267089844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -510,7 +510,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>-10.22373962402344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -519,7 +519,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>-6.052810668945312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -528,7 +528,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>-1.882949829101562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -573,7 +573,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>11.06961059570312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -618,7 +618,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>13.61595153808594</v>
+        <v>28.59895324707031</v>
       </c>
     </row>
     <row r="21">
@@ -627,7 +627,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>23.28846740722656</v>
+        <v>41.06069946289062</v>
       </c>
     </row>
     <row r="22">
@@ -636,7 +636,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>35.05546569824219</v>
+        <v>54.93942260742188</v>
       </c>
     </row>
     <row r="23">
@@ -645,7 +645,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>52.15682220458984</v>
+        <v>68.42919921875</v>
       </c>
     </row>
     <row r="24">
@@ -654,7 +654,7 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>73.412353515625</v>
+        <v>85.1968994140625</v>
       </c>
     </row>
     <row r="25">
@@ -663,7 +663,7 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>97.53436279296875</v>
+        <v>107.765380859375</v>
       </c>
     </row>
     <row r="26">

--- a/DataFrame_reconstruido/Polvo_industrial_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Polvo_industrial_reconstruido.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.284393310546875</v>
       </c>
     </row>
     <row r="11">
@@ -573,7 +573,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>11.83609008789062</v>
       </c>
     </row>
     <row r="16">
@@ -618,7 +618,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>28.59895324707031</v>
+        <v>24.66481018066406</v>
       </c>
     </row>
     <row r="21">
@@ -627,7 +627,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>41.06069946289062</v>
+        <v>47.71640014648438</v>
       </c>
     </row>
     <row r="22">
@@ -636,7 +636,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>54.93942260742188</v>
+        <v>71.50405120849609</v>
       </c>
     </row>
     <row r="23">
@@ -645,7 +645,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>68.42919921875</v>
+        <v>95.31519317626953</v>
       </c>
     </row>
     <row r="24">
@@ -654,7 +654,7 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>85.1968994140625</v>
+        <v>119.9402694702148</v>
       </c>
     </row>
     <row r="25">
@@ -663,7 +663,7 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>107.765380859375</v>
+        <v>145.0507202148438</v>
       </c>
     </row>
     <row r="26">
@@ -761,7 +761,7 @@
         <v>2006</v>
       </c>
       <c r="B36" t="n">
-        <v>476</v>
+        <v>476.5</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
